--- a/qsdsan/systems/bwaise/results/sysA_lca.xlsx
+++ b/qsdsan/systems/bwaise/results/sysA_lca.xlsx
@@ -1084,13 +1084,13 @@
         <v>28</v>
       </c>
       <c r="B37">
-        <v>4911751.564947854</v>
+        <v>4911764.802095694</v>
       </c>
       <c r="C37">
-        <v>137529043.8185399</v>
+        <v>137529414.4586794</v>
       </c>
       <c r="D37">
-        <v>1.120419755525839</v>
+        <v>1.206118572181886</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1098,13 +1098,13 @@
         <v>29</v>
       </c>
       <c r="B38">
-        <v>21577.128148335</v>
+        <v>2982.083297928012</v>
       </c>
       <c r="C38">
-        <v>5717938.959308776</v>
+        <v>790252.0739509232</v>
       </c>
       <c r="D38">
-        <v>0.04658282783782988</v>
+        <v>0.006930427987707539</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1118,7 +1118,7 @@
         <v>-2969721.730535773</v>
       </c>
       <c r="D39">
-        <v>-0.02419368885961899</v>
+        <v>-0.02604414879180254</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1126,13 +1126,13 @@
         <v>31</v>
       </c>
       <c r="B40">
-        <v>2526682.956052382</v>
+        <v>3229279.821138782</v>
       </c>
       <c r="C40">
-        <v>-13644087.96268286</v>
+        <v>-17438111.03414942</v>
       </c>
       <c r="D40">
-        <v>-0.1111554714194949</v>
+        <v>-0.1529304088499313</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1140,13 +1140,13 @@
         <v>32</v>
       </c>
       <c r="B41">
-        <v>345811.8509762709</v>
+        <v>345811.850976271</v>
       </c>
       <c r="C41">
-        <v>-1694478.069783727</v>
+        <v>-1694478.069783728</v>
       </c>
       <c r="D41">
-        <v>-0.01380455103865882</v>
+        <v>-0.01486039534280944</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1160,7 +1160,7 @@
         <v>-452807.676483287</v>
       </c>
       <c r="D42">
-        <v>-0.003688927459242868</v>
+        <v>-0.003971075935883569</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1174,7 +1174,7 @@
         <v>-691000.7392215254</v>
       </c>
       <c r="D43">
-        <v>-0.005629435483666076</v>
+        <v>-0.006060004168903788</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1182,13 +1182,13 @@
         <v>35</v>
       </c>
       <c r="B44">
-        <v>213694.1023588947</v>
+        <v>213694.1023588948</v>
       </c>
       <c r="C44">
         <v>-1047101.101558584</v>
       </c>
       <c r="D44">
-        <v>-0.008530509102986654</v>
+        <v>-0.009182967080263151</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1196,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="C45">
-        <v>122747785.4975829</v>
+        <v>114026446.180898</v>
       </c>
       <c r="D45">
         <v>1</v>
